--- a/biology/Médecine/Classe_ATC_D/Classe_ATC_D.xlsx
+++ b/biology/Médecine/Classe_ATC_D/Classe_ATC_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D, dénommée « Médicaments utilisés en dermatologie », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D, dénommée « Médicaments utilisés en dermatologie », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>D Dermatologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D01 Antimycotiques à usage dermatologique
 D02 Émollients et protecteurs
@@ -552,7 +566,9 @@
           <t>ATCvet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des sous-groupes de la classe ATCvet QD correspondante présente quelques différences. Ainsi, la classe QD05 est intitulée « Médicaments pour les troubles kératoséborrhéiques ». En outre, il existe un sous-groupe supplémentaire, QD51, dénommé « Produits pour le traitement des griffes et des sabots ».
 </t>
